--- a/inst/Data_Example.xlsx
+++ b/inst/Data_Example.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\SLAM\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SLAM\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CFF7040-BB88-472A-91F4-20B8AE383B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A985D47-444C-4718-B365-CBE3CB52C401}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="At-Age-Schedules" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Effort-Data" sheetId="3" r:id="rId3"/>
     <sheet name="Index-Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Weight_Age</t>
   </si>
@@ -73,11 +72,14 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>Weight</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,60 +439,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E235A83-1AB4-443E-8CEB-CFD3269EDB22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A8:A23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
@@ -500,27 +502,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE1B999-AAC2-4BEB-8747-93521BB82778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.3125" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -533,16 +539,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF471536-726C-4083-A0AB-426A0F41CD09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -562,16 +568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF483D-8CBA-41C6-95E6-F58C9584AC33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
